--- a/Code/Results/Cases/Case_11_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.869090591705742</v>
+        <v>3.457262170408171</v>
       </c>
       <c r="C2">
-        <v>1.104745911581944</v>
+        <v>1.007702210158641</v>
       </c>
       <c r="D2">
-        <v>0.3278482989888687</v>
+        <v>0.3492156199738474</v>
       </c>
       <c r="E2">
-        <v>1.498654169906317</v>
+        <v>1.343180230842464</v>
       </c>
       <c r="F2">
-        <v>6.635873520255558</v>
+        <v>6.463794665469322</v>
       </c>
       <c r="G2">
-        <v>0.0007437127231291205</v>
+        <v>0.0007918837209675011</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.009995295743722019</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002670933310996659</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -462,34 +468,40 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.292915343289508</v>
+        <v>2.997853015548628</v>
       </c>
       <c r="C3">
-        <v>0.9385230912519091</v>
+        <v>0.869853693225707</v>
       </c>
       <c r="D3">
-        <v>0.2856247266611547</v>
+        <v>0.3064966316520383</v>
       </c>
       <c r="E3">
-        <v>1.26642903220683</v>
+        <v>1.155751310872887</v>
       </c>
       <c r="F3">
-        <v>5.740628530079618</v>
+        <v>5.654258087503649</v>
       </c>
       <c r="G3">
-        <v>0.000757803057901766</v>
+        <v>0.0007995267261627653</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00566132105441941</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0006838291904367466</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -509,34 +521,40 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.951327824156692</v>
+        <v>2.717878933285135</v>
       </c>
       <c r="C4">
-        <v>0.8401863449115581</v>
+        <v>0.7870470786523356</v>
       </c>
       <c r="D4">
-        <v>0.2607697280726882</v>
+        <v>0.2802437474734631</v>
       </c>
       <c r="E4">
-        <v>1.130126361199331</v>
+        <v>1.042418103720038</v>
       </c>
       <c r="F4">
-        <v>5.211660616999353</v>
+        <v>5.159655295851422</v>
       </c>
       <c r="G4">
-        <v>0.0007665192320742595</v>
+        <v>0.00080432863316101</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.003562661497822361</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004342247631967666</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -556,34 +574,40 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.814651053569776</v>
+        <v>2.604150420224698</v>
       </c>
       <c r="C5">
-        <v>0.8008737998413835</v>
+        <v>0.7552167163809997</v>
       </c>
       <c r="D5">
-        <v>0.2508628126613104</v>
+        <v>0.2683125171909211</v>
       </c>
       <c r="E5">
-        <v>1.075863128695488</v>
+        <v>0.9965441341777392</v>
       </c>
       <c r="F5">
-        <v>5.000427111763315</v>
+        <v>4.944718871251297</v>
       </c>
       <c r="G5">
-        <v>0.0007700955535800399</v>
+        <v>0.0008063365970838446</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.00283109922356406</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000622890166188661</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -603,34 +627,40 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.792094130573673</v>
+        <v>2.585207879043878</v>
       </c>
       <c r="C6">
-        <v>0.7943873037310141</v>
+        <v>0.7518079961090791</v>
       </c>
       <c r="D6">
-        <v>0.2492299167691385</v>
+        <v>0.2648516623235935</v>
       </c>
       <c r="E6">
-        <v>1.066922367830301</v>
+        <v>0.9888719871438241</v>
       </c>
       <c r="F6">
-        <v>4.965589858726418</v>
+        <v>4.892255946361189</v>
       </c>
       <c r="G6">
-        <v>0.0007706910880035404</v>
+        <v>0.0008066988388415279</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002711539273524188</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0007586302123687716</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -650,34 +680,40 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.949474991803129</v>
+        <v>2.716100113317282</v>
       </c>
       <c r="C7">
-        <v>0.8396532948888478</v>
+        <v>0.7916813407236987</v>
       </c>
       <c r="D7">
-        <v>0.2606352797066194</v>
+        <v>0.2760110113271139</v>
       </c>
       <c r="E7">
-        <v>1.12938971838085</v>
+        <v>1.041580167724106</v>
       </c>
       <c r="F7">
-        <v>5.208795406155929</v>
+        <v>5.110605349627804</v>
       </c>
       <c r="G7">
-        <v>0.0007665673549488928</v>
+        <v>0.0008044293528601984</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.00353482695453966</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006621355425160402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -697,34 +733,40 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.6675410122877</v>
+        <v>3.297930760598206</v>
       </c>
       <c r="C8">
-        <v>1.046543339692192</v>
+        <v>0.9664754913100921</v>
       </c>
       <c r="D8">
-        <v>0.3130363585852933</v>
+        <v>0.3289524093292329</v>
       </c>
       <c r="E8">
-        <v>1.41708081146524</v>
+        <v>1.277802295241244</v>
       </c>
       <c r="F8">
-        <v>6.322315476670298</v>
+        <v>6.121670233424283</v>
       </c>
       <c r="G8">
-        <v>0.0007485629914414371</v>
+        <v>0.0007945947571169861</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.00834023203055928</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001998973943032389</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -744,34 +786,40 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.202712292611295</v>
+        <v>4.461276162754871</v>
       </c>
       <c r="C9">
-        <v>1.491766529190727</v>
+        <v>1.317628976875312</v>
       </c>
       <c r="D9">
-        <v>0.4269393464070106</v>
+        <v>0.4409129175473083</v>
       </c>
       <c r="E9">
-        <v>2.048269869643008</v>
+        <v>1.758791490145597</v>
       </c>
       <c r="F9">
-        <v>8.719465186564719</v>
+        <v>8.221729476999883</v>
       </c>
       <c r="G9">
-        <v>0.0007133136491433303</v>
+        <v>0.0007759650060087116</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02293966575955908</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.01318788530029646</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -791,34 +839,40 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.463671731928628</v>
+        <v>5.332556541617578</v>
       </c>
       <c r="C10">
-        <v>1.861408775469329</v>
+        <v>1.589096750276838</v>
       </c>
       <c r="D10">
-        <v>0.5222620816065842</v>
+        <v>0.5003877811189454</v>
       </c>
       <c r="E10">
-        <v>2.585351906101806</v>
+        <v>2.021280822810638</v>
       </c>
       <c r="F10">
-        <v>10.7001295017497</v>
+        <v>9.52940342855976</v>
       </c>
       <c r="G10">
-        <v>0.0006866164722787164</v>
+        <v>0.0007632755018147897</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.03654587955837574</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.02786243332301552</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -838,34 +892,40 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.08447099076642</v>
+        <v>5.696287717332439</v>
       </c>
       <c r="C11">
-        <v>2.044950820287738</v>
+        <v>1.68929629314573</v>
       </c>
       <c r="D11">
-        <v>0.5697417279156696</v>
+        <v>0.3475534396946358</v>
       </c>
       <c r="E11">
-        <v>2.856771504377136</v>
+        <v>1.319623735495057</v>
       </c>
       <c r="F11">
-        <v>11.67785285994654</v>
+        <v>7.984121445527933</v>
       </c>
       <c r="G11">
-        <v>0.0006740234843875903</v>
+        <v>0.0007625219121048961</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.05102710592101189</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.02986244529849014</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -885,34 +945,40 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.328571152713948</v>
+        <v>5.821453138132654</v>
       </c>
       <c r="C12">
-        <v>2.117427780801279</v>
+        <v>1.71081905899149</v>
       </c>
       <c r="D12">
-        <v>0.5885073197268582</v>
+        <v>0.2378295168972926</v>
       </c>
       <c r="E12">
-        <v>2.964870090642748</v>
+        <v>0.8095450099342685</v>
       </c>
       <c r="F12">
-        <v>12.06264309303924</v>
+        <v>6.621540193137264</v>
       </c>
       <c r="G12">
-        <v>0.0006691567471939022</v>
+        <v>0.0007639042150792652</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.08537059510579326</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.02834500312373667</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -932,34 +998,40 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.275554054881241</v>
+        <v>5.769062860697261</v>
       </c>
       <c r="C13">
-        <v>2.101670983166912</v>
+        <v>1.681431827745541</v>
       </c>
       <c r="D13">
-        <v>0.58442696306318</v>
+        <v>0.1489218976295632</v>
       </c>
       <c r="E13">
-        <v>2.941323476956214</v>
+        <v>0.4192333535295205</v>
       </c>
       <c r="F13">
-        <v>11.97905445325648</v>
+        <v>5.257492853800528</v>
       </c>
       <c r="G13">
-        <v>0.0006702099212943329</v>
+        <v>0.0007670939994285801</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1363447470369579</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.02441139653021018</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -979,34 +1051,40 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.104356758336053</v>
+        <v>5.653258874752623</v>
       </c>
       <c r="C14">
-        <v>2.05084853859745</v>
+        <v>1.640501665964337</v>
       </c>
       <c r="D14">
-        <v>0.571268457492522</v>
+        <v>0.09914364752189897</v>
       </c>
       <c r="E14">
-        <v>2.86554799980604</v>
+        <v>0.2200208786317432</v>
       </c>
       <c r="F14">
-        <v>11.70919345391218</v>
+        <v>4.320288365004302</v>
       </c>
       <c r="G14">
-        <v>0.0006736252978828791</v>
+        <v>0.0007700778533965794</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.18241339872894</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.02096641771609153</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1026,34 +1104,40 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.00074807254731</v>
+        <v>5.587027398541977</v>
       </c>
       <c r="C15">
-        <v>2.020133084844645</v>
+        <v>1.621696695691526</v>
       </c>
       <c r="D15">
-        <v>0.5633178486194481</v>
+        <v>0.08790478637317278</v>
       </c>
       <c r="E15">
-        <v>2.819877994524219</v>
+        <v>0.180148105521539</v>
       </c>
       <c r="F15">
-        <v>11.54591643366126</v>
+        <v>4.065077586257132</v>
       </c>
       <c r="G15">
-        <v>0.000675703335704542</v>
+        <v>0.0007712711082461959</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1938160907104987</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01972158660848322</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1073,34 +1157,40 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.424223654653986</v>
+        <v>5.224085017559617</v>
       </c>
       <c r="C16">
-        <v>1.849782383921365</v>
+        <v>1.516492032032318</v>
       </c>
       <c r="D16">
-        <v>0.5192570740193219</v>
+        <v>0.08526566423042681</v>
       </c>
       <c r="E16">
-        <v>2.568268379124916</v>
+        <v>0.1700411051112454</v>
       </c>
       <c r="F16">
-        <v>10.63804998064421</v>
+        <v>3.828971836814645</v>
       </c>
       <c r="G16">
-        <v>0.0006874278300959101</v>
+        <v>0.00077591099244641</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1772398316277872</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01491254195543057</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1120,34 +1210,40 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6.083985265651677</v>
+        <v>5.007352928785792</v>
       </c>
       <c r="C17">
-        <v>1.74967925505041</v>
+        <v>1.457340512143503</v>
       </c>
       <c r="D17">
-        <v>0.4933995490309258</v>
+        <v>0.1063005318635462</v>
       </c>
       <c r="E17">
-        <v>2.421703187807424</v>
+        <v>0.2527426306022065</v>
       </c>
       <c r="F17">
-        <v>10.10289414216493</v>
+        <v>4.119620197415884</v>
       </c>
       <c r="G17">
-        <v>0.0006944852374395349</v>
+        <v>0.0007779609381707517</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1380845818779335</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01298819220147251</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1167,34 +1263,40 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.892560823670976</v>
+        <v>4.891181072940014</v>
       </c>
       <c r="C18">
-        <v>1.693493160134778</v>
+        <v>1.426784906721878</v>
       </c>
       <c r="D18">
-        <v>0.4788997599790434</v>
+        <v>0.1630917184647416</v>
       </c>
       <c r="E18">
-        <v>2.339843746202689</v>
+        <v>0.488672800946965</v>
       </c>
       <c r="F18">
-        <v>9.802041018714419</v>
+        <v>4.989782952390868</v>
       </c>
       <c r="G18">
-        <v>0.0006985048257280441</v>
+        <v>0.0007777175351106891</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08624958060428156</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.0128610273449894</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1214,34 +1316,40 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.828425562121311</v>
+        <v>4.865410637195282</v>
       </c>
       <c r="C19">
-        <v>1.674689419313893</v>
+        <v>1.433989826580387</v>
       </c>
       <c r="D19">
-        <v>0.4740495448535285</v>
+        <v>0.2585924094822332</v>
       </c>
       <c r="E19">
-        <v>2.312511968272219</v>
+        <v>0.9316599478342198</v>
       </c>
       <c r="F19">
-        <v>9.701283292199292</v>
+        <v>6.311405617291229</v>
       </c>
       <c r="G19">
-        <v>0.0006998598190865405</v>
+        <v>0.0007753471943131185</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04486607482094485</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01491509726212481</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1261,34 +1369,40 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.119748412428692</v>
+        <v>5.100185226391659</v>
       </c>
       <c r="C20">
-        <v>1.760186838715697</v>
+        <v>1.532472938516833</v>
       </c>
       <c r="D20">
-        <v>0.4961123540601022</v>
+        <v>0.4702190910753643</v>
       </c>
       <c r="E20">
-        <v>2.437044104630658</v>
+        <v>1.945769640609583</v>
       </c>
       <c r="F20">
-        <v>10.15912097007671</v>
+        <v>9.0203272447026</v>
       </c>
       <c r="G20">
-        <v>0.0006937382734403594</v>
+        <v>0.0007668416119520997</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.03244554102579755</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.02379408360536761</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1308,34 +1422,40 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.154374863364637</v>
+        <v>5.784892976581773</v>
       </c>
       <c r="C21">
-        <v>2.065688090290337</v>
+        <v>1.750257957264921</v>
       </c>
       <c r="D21">
-        <v>0.5751101848300664</v>
+        <v>0.5534414014092022</v>
       </c>
       <c r="E21">
-        <v>2.887646484235404</v>
+        <v>2.318371252717682</v>
       </c>
       <c r="F21">
-        <v>11.78802886964667</v>
+        <v>10.45960704905036</v>
       </c>
       <c r="G21">
-        <v>0.0006726251112156297</v>
+        <v>0.000756201365715177</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0464444912688986</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.03888522512563775</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1355,34 +1475,40 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.884855886698745</v>
+        <v>6.238143054835405</v>
       </c>
       <c r="C22">
-        <v>2.283282165834066</v>
+        <v>1.888477988335353</v>
       </c>
       <c r="D22">
-        <v>0.6314726412728078</v>
+        <v>0.6034973891750326</v>
       </c>
       <c r="E22">
-        <v>3.214297175114268</v>
+        <v>2.513470465521181</v>
       </c>
       <c r="F22">
-        <v>12.94011826465407</v>
+        <v>11.35561038052936</v>
       </c>
       <c r="G22">
-        <v>0.0006582287118990811</v>
+        <v>0.0007494717359220136</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.05622256578920748</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.05032041316143676</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1402,34 +1528,40 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.489036152901463</v>
+        <v>5.996341369730999</v>
       </c>
       <c r="C23">
-        <v>2.165170641705231</v>
+        <v>1.808243448853432</v>
       </c>
       <c r="D23">
-        <v>0.600872616121336</v>
+        <v>0.5820632899846885</v>
       </c>
       <c r="E23">
-        <v>3.03637255775223</v>
+        <v>2.409407682906746</v>
       </c>
       <c r="F23">
-        <v>12.31568343274768</v>
+        <v>10.93547678253219</v>
       </c>
       <c r="G23">
-        <v>0.0006659818291808603</v>
+        <v>0.0007529736297253577</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.05097258498324031</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.04393539907997379</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1449,34 +1581,40 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.103567020224034</v>
+        <v>5.093396454990398</v>
       </c>
       <c r="C24">
-        <v>1.755432162945965</v>
+        <v>1.522929633599688</v>
       </c>
       <c r="D24">
-        <v>0.4948847683158704</v>
+        <v>0.494095960497134</v>
       </c>
       <c r="E24">
-        <v>2.430101090143168</v>
+        <v>2.024357664267967</v>
       </c>
       <c r="F24">
-        <v>10.13367983991688</v>
+        <v>9.282577626360364</v>
       </c>
       <c r="G24">
-        <v>0.0006940760912558396</v>
+        <v>0.0007664096614360714</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.03328234609949288</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.02388743652415215</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1496,34 +1634,40 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.76892253653881</v>
+        <v>4.142656613778001</v>
       </c>
       <c r="C25">
-        <v>1.365482018976479</v>
+        <v>1.229542174013773</v>
       </c>
       <c r="D25">
-        <v>0.3945066067678624</v>
+        <v>0.4026513398619613</v>
       </c>
       <c r="E25">
-        <v>1.867542477264166</v>
+        <v>1.625711697670212</v>
       </c>
       <c r="F25">
-        <v>8.040232194133921</v>
+        <v>7.560761790821061</v>
       </c>
       <c r="G25">
-        <v>0.0007229166982805069</v>
+        <v>0.0007810655889403182</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01826779157226266</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.009293847328576632</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,6 +1685,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_11_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_0/res_line/pl_mw.xlsx
@@ -427,28 +427,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.457262170408171</v>
+        <v>4.981230423876468</v>
       </c>
       <c r="C2">
-        <v>1.007702210158641</v>
+        <v>1.533380357151145</v>
       </c>
       <c r="D2">
-        <v>0.3492156199738474</v>
+        <v>0.0765853248849524</v>
       </c>
       <c r="E2">
-        <v>1.343180230842464</v>
+        <v>1.359268881961739</v>
       </c>
       <c r="F2">
-        <v>6.463794665469322</v>
+        <v>2.948547961839751</v>
       </c>
       <c r="G2">
-        <v>0.0007918837209675011</v>
+        <v>0.0007876981006996155</v>
       </c>
       <c r="H2">
-        <v>0.009995295743722019</v>
+        <v>0.01175518264854031</v>
       </c>
       <c r="I2">
-        <v>0.002670933310996659</v>
+        <v>0.006613395466705363</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>1.097255617216376</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -480,28 +480,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.997853015548628</v>
+        <v>4.320021657265556</v>
       </c>
       <c r="C3">
-        <v>0.869853693225707</v>
+        <v>1.324722100298629</v>
       </c>
       <c r="D3">
-        <v>0.3064966316520383</v>
+        <v>0.07095763349168038</v>
       </c>
       <c r="E3">
-        <v>1.155751310872887</v>
+        <v>1.172073800671214</v>
       </c>
       <c r="F3">
-        <v>5.654258087503649</v>
+        <v>2.613109361582872</v>
       </c>
       <c r="G3">
-        <v>0.0007995267261627653</v>
+        <v>0.0007946891518557333</v>
       </c>
       <c r="H3">
-        <v>0.00566132105441941</v>
+        <v>0.007212128027621834</v>
       </c>
       <c r="I3">
-        <v>0.0006838291904367466</v>
+        <v>0.002948885422485059</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1.094481175163864</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -533,28 +533,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.717878933285135</v>
+        <v>3.915698898342782</v>
       </c>
       <c r="C4">
-        <v>0.7870470786523356</v>
+        <v>1.198322027119559</v>
       </c>
       <c r="D4">
-        <v>0.2802437474734631</v>
+        <v>0.06745113563161453</v>
       </c>
       <c r="E4">
-        <v>1.042418103720038</v>
+        <v>1.058569938732447</v>
       </c>
       <c r="F4">
-        <v>5.159655295851422</v>
+        <v>2.409144672161048</v>
       </c>
       <c r="G4">
-        <v>0.00080432863316101</v>
+        <v>0.0007990927253246388</v>
       </c>
       <c r="H4">
-        <v>0.003562661497822361</v>
+        <v>0.004916224201339192</v>
       </c>
       <c r="I4">
-        <v>0.0004342247631967666</v>
+        <v>0.00148838123403916</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1.092854804039931</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -586,28 +586,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.604150420224698</v>
+        <v>3.747607318179689</v>
       </c>
       <c r="C5">
-        <v>0.7552167163809997</v>
+        <v>1.147871087881583</v>
       </c>
       <c r="D5">
-        <v>0.2683125171909211</v>
+        <v>0.06584242137925855</v>
       </c>
       <c r="E5">
-        <v>0.9965441341777392</v>
+        <v>1.012576996458506</v>
       </c>
       <c r="F5">
-        <v>4.944718871251297</v>
+        <v>2.323316459685529</v>
       </c>
       <c r="G5">
-        <v>0.0008063365970838446</v>
+        <v>0.0008009303667910995</v>
       </c>
       <c r="H5">
-        <v>0.00283109922356406</v>
+        <v>0.00408997314903714</v>
       </c>
       <c r="I5">
-        <v>0.000622890166188661</v>
+        <v>0.001131603897055466</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1.09065326676032</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -639,28 +639,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.585207879043878</v>
+        <v>3.715280378918862</v>
       </c>
       <c r="C6">
-        <v>0.7518079961090791</v>
+        <v>1.140358903001413</v>
       </c>
       <c r="D6">
-        <v>0.2648516623235935</v>
+        <v>0.06537209896362839</v>
       </c>
       <c r="E6">
-        <v>0.9888719871438241</v>
+        <v>1.004904273159696</v>
       </c>
       <c r="F6">
-        <v>4.892255946361189</v>
+        <v>2.305276147110703</v>
       </c>
       <c r="G6">
-        <v>0.0008066988388415279</v>
+        <v>0.0008012544326233542</v>
       </c>
       <c r="H6">
-        <v>0.002711539273524188</v>
+        <v>0.003955060321159998</v>
       </c>
       <c r="I6">
-        <v>0.0007586302123687716</v>
+        <v>0.00116115291958252</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -681,7 +681,7 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.088405492363435</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -692,28 +692,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.716100113317282</v>
+        <v>3.901266069596943</v>
       </c>
       <c r="C7">
-        <v>0.7916813407236987</v>
+        <v>1.19995177266685</v>
       </c>
       <c r="D7">
-        <v>0.2760110113271139</v>
+        <v>0.06687462319382576</v>
       </c>
       <c r="E7">
-        <v>1.041580167724106</v>
+        <v>1.05779948839654</v>
       </c>
       <c r="F7">
-        <v>5.110605349627804</v>
+        <v>2.397540478082703</v>
       </c>
       <c r="G7">
-        <v>0.0008044293528601984</v>
+        <v>0.0007991637887946879</v>
       </c>
       <c r="H7">
-        <v>0.00353482695453966</v>
+        <v>0.004891676594446448</v>
       </c>
       <c r="I7">
-        <v>0.0006621355425160402</v>
+        <v>0.001675678934604186</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1.087684391494015</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -745,28 +745,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.297930760598206</v>
+        <v>4.736434825295305</v>
       </c>
       <c r="C8">
-        <v>0.9664754913100921</v>
+        <v>1.464118339770437</v>
       </c>
       <c r="D8">
-        <v>0.3289524093292329</v>
+        <v>0.07391235557678044</v>
       </c>
       <c r="E8">
-        <v>1.277802295241244</v>
+        <v>1.29416445724037</v>
       </c>
       <c r="F8">
-        <v>6.121670233424283</v>
+        <v>2.818429149018527</v>
       </c>
       <c r="G8">
-        <v>0.0007945947571169861</v>
+        <v>0.0007901460370847985</v>
       </c>
       <c r="H8">
-        <v>0.00834023203055928</v>
+        <v>0.01005516924093632</v>
       </c>
       <c r="I8">
-        <v>0.001998973943032389</v>
+        <v>0.005372860819191416</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1.089487591704398</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -798,28 +798,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.461276162754871</v>
+        <v>6.415911772227162</v>
       </c>
       <c r="C9">
-        <v>1.317628976875312</v>
+        <v>1.994740460635967</v>
       </c>
       <c r="D9">
-        <v>0.4409129175473083</v>
+        <v>0.0883769866692532</v>
       </c>
       <c r="E9">
-        <v>1.758791490145597</v>
+        <v>1.772201791939992</v>
       </c>
       <c r="F9">
-        <v>8.221729476999883</v>
+        <v>3.683463379825696</v>
       </c>
       <c r="G9">
-        <v>0.0007759650060087116</v>
+        <v>0.0007732046513021398</v>
       </c>
       <c r="H9">
-        <v>0.02293966575955908</v>
+        <v>0.02468761372549633</v>
       </c>
       <c r="I9">
-        <v>0.01318788530029646</v>
+        <v>0.01955913258151032</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1.103558314488197</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -851,28 +851,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.332556541617578</v>
+        <v>7.602905785113592</v>
       </c>
       <c r="C10">
-        <v>1.589096750276838</v>
+        <v>2.376245661793007</v>
       </c>
       <c r="D10">
-        <v>0.5003877811189454</v>
+        <v>0.09544131048739501</v>
       </c>
       <c r="E10">
-        <v>2.021280822810638</v>
+        <v>2.03044398709352</v>
       </c>
       <c r="F10">
-        <v>9.52940342855976</v>
+        <v>4.270257071634973</v>
       </c>
       <c r="G10">
-        <v>0.0007632755018147897</v>
+        <v>0.0007616360504728184</v>
       </c>
       <c r="H10">
-        <v>0.03654587955837574</v>
+        <v>0.0378572013089622</v>
       </c>
       <c r="I10">
-        <v>0.02786243332301552</v>
+        <v>0.03511095460282565</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.091024460534172</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -904,28 +904,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.696287717332439</v>
+        <v>7.588332565320059</v>
       </c>
       <c r="C11">
-        <v>1.68929629314573</v>
+        <v>2.345199510257487</v>
       </c>
       <c r="D11">
-        <v>0.3475534396946358</v>
+        <v>0.0728433864938367</v>
       </c>
       <c r="E11">
-        <v>1.319623735495057</v>
+        <v>1.330751556135809</v>
       </c>
       <c r="F11">
-        <v>7.984121445527933</v>
+        <v>3.982694589184518</v>
       </c>
       <c r="G11">
-        <v>0.0007625219121048961</v>
+        <v>0.0007601541995707229</v>
       </c>
       <c r="H11">
-        <v>0.05102710592101189</v>
+        <v>0.05280914036437068</v>
       </c>
       <c r="I11">
-        <v>0.02986244529849014</v>
+        <v>0.037753114894854</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.9030669903682167</v>
       </c>
       <c r="Q11">
         <v>0</v>
@@ -957,28 +957,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.821453138132654</v>
+        <v>7.345618155442139</v>
       </c>
       <c r="C12">
-        <v>1.71081905899149</v>
+        <v>2.23660020803942</v>
       </c>
       <c r="D12">
-        <v>0.2378295168972926</v>
+        <v>0.05644071730884548</v>
       </c>
       <c r="E12">
-        <v>0.8095450099342685</v>
+        <v>0.8211603905815821</v>
       </c>
       <c r="F12">
-        <v>6.621540193137264</v>
+        <v>3.643944556141406</v>
       </c>
       <c r="G12">
-        <v>0.0007639042150792652</v>
+        <v>0.0007609435587364955</v>
       </c>
       <c r="H12">
-        <v>0.08537059510579326</v>
+        <v>0.08744102875231619</v>
       </c>
       <c r="I12">
-        <v>0.02834500312373667</v>
+        <v>0.03644100085519231</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.7777018069335782</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -1010,28 +1010,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.769062860697261</v>
+        <v>6.897314969269019</v>
       </c>
       <c r="C13">
-        <v>1.681431827745541</v>
+        <v>2.067507920854155</v>
       </c>
       <c r="D13">
-        <v>0.1489218976295632</v>
+        <v>0.04305388161407464</v>
       </c>
       <c r="E13">
-        <v>0.4192333535295205</v>
+        <v>0.4304368035855077</v>
       </c>
       <c r="F13">
-        <v>5.257492853800528</v>
+        <v>3.232595640091887</v>
       </c>
       <c r="G13">
-        <v>0.0007670939994285801</v>
+        <v>0.0007635703527378856</v>
       </c>
       <c r="H13">
-        <v>0.1363447470369579</v>
+        <v>0.1385865610561012</v>
       </c>
       <c r="I13">
-        <v>0.02441139653021018</v>
+        <v>0.03234772729667501</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.6847524645093088</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -1063,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.653258874752623</v>
+        <v>6.49179278763927</v>
       </c>
       <c r="C14">
-        <v>1.640501665964337</v>
+        <v>1.92469935826449</v>
       </c>
       <c r="D14">
-        <v>0.09914364752189897</v>
+        <v>0.03545943499494442</v>
       </c>
       <c r="E14">
-        <v>0.2200208786317432</v>
+        <v>0.2304414329774218</v>
       </c>
       <c r="F14">
-        <v>4.320288365004302</v>
+        <v>2.914477541059597</v>
       </c>
       <c r="G14">
-        <v>0.0007700778533965794</v>
+        <v>0.0007662003112132409</v>
       </c>
       <c r="H14">
-        <v>0.18241339872894</v>
+        <v>0.1846997451284835</v>
       </c>
       <c r="I14">
-        <v>0.02096641771609153</v>
+        <v>0.02857043298932282</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.636617747162866</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1116,28 +1116,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.587027398541977</v>
+        <v>6.345712463304778</v>
       </c>
       <c r="C15">
-        <v>1.621696695691526</v>
+        <v>1.87803954795487</v>
       </c>
       <c r="D15">
-        <v>0.08790478637317278</v>
+        <v>0.03377085357345422</v>
       </c>
       <c r="E15">
-        <v>0.180148105521539</v>
+        <v>0.1903441791731133</v>
       </c>
       <c r="F15">
-        <v>4.065077586257132</v>
+        <v>2.817604012370936</v>
       </c>
       <c r="G15">
-        <v>0.0007712711082461959</v>
+        <v>0.0007672860252298415</v>
       </c>
       <c r="H15">
-        <v>0.1938160907104987</v>
+        <v>0.1961007734092988</v>
       </c>
       <c r="I15">
-        <v>0.01972158660848322</v>
+        <v>0.02717402711722627</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1158,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.6281378259490218</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -1169,28 +1169,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.224085017559617</v>
+        <v>5.936119174746807</v>
       </c>
       <c r="C16">
-        <v>1.516492032032318</v>
+        <v>1.756462432841943</v>
       </c>
       <c r="D16">
-        <v>0.08526566423042681</v>
+        <v>0.03384028511147363</v>
       </c>
       <c r="E16">
-        <v>0.1700411051112454</v>
+        <v>0.1804204042892827</v>
       </c>
       <c r="F16">
-        <v>3.828971836814645</v>
+        <v>2.657050463300919</v>
       </c>
       <c r="G16">
-        <v>0.00077591099244641</v>
+        <v>0.0007716125292273823</v>
       </c>
       <c r="H16">
-        <v>0.1772398316277872</v>
+        <v>0.1794527841903033</v>
       </c>
       <c r="I16">
-        <v>0.01491254195543057</v>
+        <v>0.02184367076104721</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.651435611291852</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -1222,28 +1222,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.007352928785792</v>
+        <v>5.833874973497018</v>
       </c>
       <c r="C17">
-        <v>1.457340512143503</v>
+        <v>1.737849896047749</v>
       </c>
       <c r="D17">
-        <v>0.1063005318635462</v>
+        <v>0.03750419642386404</v>
       </c>
       <c r="E17">
-        <v>0.2527426306022065</v>
+        <v>0.2639330924608174</v>
       </c>
       <c r="F17">
-        <v>4.119620197415884</v>
+        <v>2.69897714991464</v>
       </c>
       <c r="G17">
-        <v>0.0007779609381707517</v>
+        <v>0.0007735824492763888</v>
       </c>
       <c r="H17">
-        <v>0.1380845818779335</v>
+        <v>0.1402455617029688</v>
       </c>
       <c r="I17">
-        <v>0.01298819220147251</v>
+        <v>0.01969550886613902</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1264,7 +1264,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.6925813884899128</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1275,28 +1275,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.891181072940014</v>
+        <v>5.994937761584595</v>
       </c>
       <c r="C18">
-        <v>1.426784906721878</v>
+        <v>1.804951456726997</v>
       </c>
       <c r="D18">
-        <v>0.1630917184647416</v>
+        <v>0.04650595151861836</v>
       </c>
       <c r="E18">
-        <v>0.488672800946965</v>
+        <v>0.5012350193891635</v>
       </c>
       <c r="F18">
-        <v>4.989782952390868</v>
+        <v>2.933583967417889</v>
       </c>
       <c r="G18">
-        <v>0.0007777175351106891</v>
+        <v>0.000773548116443686</v>
       </c>
       <c r="H18">
-        <v>0.08624958060428156</v>
+        <v>0.08838109454863741</v>
       </c>
       <c r="I18">
-        <v>0.0128610273449894</v>
+        <v>0.01962906721980584</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.7668408410710015</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1328,28 +1328,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.865410637195282</v>
+        <v>6.340717363587203</v>
       </c>
       <c r="C19">
-        <v>1.433989826580387</v>
+        <v>1.94458517355838</v>
       </c>
       <c r="D19">
-        <v>0.2585924094822332</v>
+        <v>0.06104873384579435</v>
       </c>
       <c r="E19">
-        <v>0.9316599478342198</v>
+        <v>0.9453177939100215</v>
       </c>
       <c r="F19">
-        <v>6.311405617291229</v>
+        <v>3.302873377397788</v>
       </c>
       <c r="G19">
-        <v>0.0007753471943131185</v>
+        <v>0.0007717270255375275</v>
       </c>
       <c r="H19">
-        <v>0.04486607482094485</v>
+        <v>0.04693725659048198</v>
       </c>
       <c r="I19">
-        <v>0.01491509726212481</v>
+        <v>0.02186821644847559</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.8739235503081701</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1381,28 +1381,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.100185226391659</v>
+        <v>7.246826672728787</v>
       </c>
       <c r="C20">
-        <v>1.532472938516833</v>
+        <v>2.281277834259754</v>
       </c>
       <c r="D20">
-        <v>0.4702190910753643</v>
+        <v>0.0917043484040363</v>
       </c>
       <c r="E20">
-        <v>1.945769640609583</v>
+        <v>1.956744648804346</v>
       </c>
       <c r="F20">
-        <v>9.0203272447026</v>
+        <v>4.078312994721784</v>
       </c>
       <c r="G20">
-        <v>0.0007668416119520997</v>
+        <v>0.0007648015064704452</v>
       </c>
       <c r="H20">
-        <v>0.03244554102579755</v>
+        <v>0.03398296660081845</v>
       </c>
       <c r="I20">
-        <v>0.02379408360536761</v>
+        <v>0.03094044142827457</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1.077553176369335</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1434,28 +1434,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.784892976581773</v>
+        <v>8.271384052501162</v>
       </c>
       <c r="C21">
-        <v>1.750257957264921</v>
+        <v>2.616745136655311</v>
       </c>
       <c r="D21">
-        <v>0.5534414014092022</v>
+        <v>0.1023510655173041</v>
       </c>
       <c r="E21">
-        <v>2.318371252717682</v>
+        <v>2.323912087395797</v>
       </c>
       <c r="F21">
-        <v>10.45960704905036</v>
+        <v>4.642254762457441</v>
       </c>
       <c r="G21">
-        <v>0.000756201365715177</v>
+        <v>0.0007553058648042135</v>
       </c>
       <c r="H21">
-        <v>0.0464444912688986</v>
+        <v>0.04725742275376454</v>
       </c>
       <c r="I21">
-        <v>0.03888522512563775</v>
+        <v>0.0460517376191687</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1476,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1.106713656422215</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1487,28 +1487,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.238143054835405</v>
+        <v>8.934333451542443</v>
       </c>
       <c r="C22">
-        <v>1.888477988335353</v>
+        <v>2.825058429238027</v>
       </c>
       <c r="D22">
-        <v>0.6034973891750326</v>
+        <v>0.1084892713896934</v>
       </c>
       <c r="E22">
-        <v>2.513470465521181</v>
+        <v>2.514524627111911</v>
       </c>
       <c r="F22">
-        <v>11.35561038052936</v>
+        <v>4.999520173465328</v>
       </c>
       <c r="G22">
-        <v>0.0007494717359220136</v>
+        <v>0.0007493132598017731</v>
       </c>
       <c r="H22">
-        <v>0.05622256578920748</v>
+        <v>0.05638144862008332</v>
       </c>
       <c r="I22">
-        <v>0.05032041316143676</v>
+        <v>0.05706598819542208</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1.121950448346524</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -1540,28 +1540,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.996341369730999</v>
+        <v>8.595242952112244</v>
       </c>
       <c r="C23">
-        <v>1.808243448853432</v>
+        <v>2.7106406466051</v>
       </c>
       <c r="D23">
-        <v>0.5820632899846885</v>
+        <v>0.1058939781486643</v>
       </c>
       <c r="E23">
-        <v>2.409407682906746</v>
+        <v>2.412708661291333</v>
       </c>
       <c r="F23">
-        <v>10.93547678253219</v>
+        <v>4.821158926806987</v>
       </c>
       <c r="G23">
-        <v>0.0007529736297253577</v>
+        <v>0.0007524584084325714</v>
       </c>
       <c r="H23">
-        <v>0.05097258498324031</v>
+        <v>0.05146333044048212</v>
       </c>
       <c r="I23">
-        <v>0.04393539907997379</v>
+        <v>0.05092019961416483</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1.119745363144574</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -1593,28 +1593,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.093396454990398</v>
+        <v>7.302328049739117</v>
       </c>
       <c r="C24">
-        <v>1.522929633599688</v>
+        <v>2.290898539287753</v>
       </c>
       <c r="D24">
-        <v>0.494095960497134</v>
+        <v>0.09503829538671482</v>
       </c>
       <c r="E24">
-        <v>2.024357664267967</v>
+        <v>2.034688665809696</v>
       </c>
       <c r="F24">
-        <v>9.282577626360364</v>
+        <v>4.138735064769037</v>
       </c>
       <c r="G24">
-        <v>0.0007664096614360714</v>
+        <v>0.0007645285058988202</v>
       </c>
       <c r="H24">
-        <v>0.03328234609949288</v>
+        <v>0.03472078643161858</v>
       </c>
       <c r="I24">
-        <v>0.02388743652415215</v>
+        <v>0.03097258645892609</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1.103740619409947</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -1646,28 +1646,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.142656613778001</v>
+        <v>5.935627322275309</v>
       </c>
       <c r="C25">
-        <v>1.229542174013773</v>
+        <v>1.853165442785212</v>
       </c>
       <c r="D25">
-        <v>0.4026513398619613</v>
+        <v>0.08346568978059565</v>
       </c>
       <c r="E25">
-        <v>1.625711697670212</v>
+        <v>1.640566109694802</v>
       </c>
       <c r="F25">
-        <v>7.560761790821061</v>
+        <v>3.427107054559997</v>
       </c>
       <c r="G25">
-        <v>0.0007810655889403182</v>
+        <v>0.0007777875869371744</v>
       </c>
       <c r="H25">
-        <v>0.01826779157226266</v>
+        <v>0.0201211202158289</v>
       </c>
       <c r="I25">
-        <v>0.009293847328576632</v>
+        <v>0.01505530797214849</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.090272130385642</v>
       </c>
       <c r="Q25">
         <v>0</v>

--- a/Code/Results/Cases/Case_11_0/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_11_0/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.981230423876468</v>
+        <v>1.038953195066711</v>
       </c>
       <c r="C2">
-        <v>1.533380357151145</v>
+        <v>0.1014259759218561</v>
       </c>
       <c r="D2">
-        <v>0.0765853248849524</v>
+        <v>0.04391197071063146</v>
       </c>
       <c r="E2">
-        <v>1.359268881961739</v>
+        <v>0.03870022679157792</v>
       </c>
       <c r="F2">
-        <v>2.948547961839751</v>
+        <v>1.320276269728609</v>
       </c>
       <c r="G2">
-        <v>0.0007876981006996155</v>
+        <v>1.068672065270633</v>
       </c>
       <c r="H2">
-        <v>0.01175518264854031</v>
+        <v>0.02159585403914377</v>
       </c>
       <c r="I2">
-        <v>0.006613395466705363</v>
+        <v>0.02801822020409572</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7463630892815303</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8152672531146052</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.04503296155213121</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.05686056879900647</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.9733705456712869</v>
       </c>
       <c r="P2">
-        <v>1.097255617216376</v>
+        <v>0.2003987907384754</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.320021657265556</v>
+        <v>0.9059073865990399</v>
       </c>
       <c r="C3">
-        <v>1.324722100298629</v>
+        <v>0.08923794340263669</v>
       </c>
       <c r="D3">
-        <v>0.07095763349168038</v>
+        <v>0.03861353956560976</v>
       </c>
       <c r="E3">
-        <v>1.172073800671214</v>
+        <v>0.03536540908266339</v>
       </c>
       <c r="F3">
-        <v>2.613109361582872</v>
+        <v>1.269386545833065</v>
       </c>
       <c r="G3">
-        <v>0.0007946891518557333</v>
+        <v>1.032474247967073</v>
       </c>
       <c r="H3">
-        <v>0.007212128027621834</v>
+        <v>0.02601251768983426</v>
       </c>
       <c r="I3">
-        <v>0.002948885422485059</v>
+        <v>0.03297407136492181</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.7254146459590061</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.7976000252150612</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.05004583722241929</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.05318838320279085</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8471872417618158</v>
       </c>
       <c r="P3">
-        <v>1.094481175163864</v>
+        <v>0.1775446535062244</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>3.915698898342782</v>
+        <v>0.8241223702617049</v>
       </c>
       <c r="C4">
-        <v>1.198322027119559</v>
+        <v>0.0818790938166245</v>
       </c>
       <c r="D4">
-        <v>0.06745113563161453</v>
+        <v>0.03539346695504264</v>
       </c>
       <c r="E4">
-        <v>1.058569938732447</v>
+        <v>0.03330865563194152</v>
       </c>
       <c r="F4">
-        <v>2.409144672161048</v>
+        <v>1.238411480066631</v>
       </c>
       <c r="G4">
-        <v>0.0007990927253246388</v>
+        <v>1.010670474165124</v>
       </c>
       <c r="H4">
-        <v>0.004916224201339192</v>
+        <v>0.02903706514627857</v>
       </c>
       <c r="I4">
-        <v>0.00148838123403916</v>
+        <v>0.03637846904808573</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7124776605881067</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.786769021005675</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05415014422699826</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.05088990280456684</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.7698870075683431</v>
       </c>
       <c r="P4">
-        <v>1.092854804039931</v>
+        <v>0.1635983942328849</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.747607318179689</v>
+        <v>0.7904929498183719</v>
       </c>
       <c r="C5">
-        <v>1.147871087881583</v>
+        <v>0.0791446230659858</v>
       </c>
       <c r="D5">
-        <v>0.06584242137925855</v>
+        <v>0.03416421275522197</v>
       </c>
       <c r="E5">
-        <v>1.012576996458506</v>
+        <v>0.03245354914636067</v>
       </c>
       <c r="F5">
-        <v>2.323316459685529</v>
+        <v>1.224391739924528</v>
       </c>
       <c r="G5">
-        <v>0.0008009303667910995</v>
+        <v>1.000441607655006</v>
       </c>
       <c r="H5">
-        <v>0.00408997314903714</v>
+        <v>0.03035541645038231</v>
       </c>
       <c r="I5">
-        <v>0.001131603897055466</v>
+        <v>0.03797530069776212</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7064170985489397</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.7812751084469056</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.05608233423681774</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0498815802499859</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7387339234256842</v>
       </c>
       <c r="P5">
-        <v>1.09065326676032</v>
+        <v>0.1581125593275914</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.715280378918862</v>
+        <v>0.7845738122845773</v>
       </c>
       <c r="C6">
-        <v>1.140358903001413</v>
+        <v>0.07898225158793082</v>
       </c>
       <c r="D6">
-        <v>0.06537209896362839</v>
+        <v>0.03405269929059784</v>
       </c>
       <c r="E6">
-        <v>1.004904273159696</v>
+        <v>0.0322938885921662</v>
       </c>
       <c r="F6">
-        <v>2.305276147110703</v>
+        <v>1.220282898309229</v>
       </c>
       <c r="G6">
-        <v>0.0008012544326233542</v>
+        <v>0.9969862695135276</v>
       </c>
       <c r="H6">
-        <v>0.003955060321159998</v>
+        <v>0.03059067828731865</v>
       </c>
       <c r="I6">
-        <v>0.00116115291958252</v>
+        <v>0.03840264577850316</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7044694210549807</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.779040545679706</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.05641890121778736</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.04963989008360592</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7339445211963778</v>
       </c>
       <c r="P6">
-        <v>1.088405492363435</v>
+        <v>0.1574207128902856</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3.901266069596943</v>
+        <v>0.8229431797138602</v>
       </c>
       <c r="C7">
-        <v>1.19995177266685</v>
+        <v>0.0824484061922135</v>
       </c>
       <c r="D7">
-        <v>0.06687462319382576</v>
+        <v>0.03584183872492019</v>
       </c>
       <c r="E7">
-        <v>1.05779948839654</v>
+        <v>0.03328311828482811</v>
       </c>
       <c r="F7">
-        <v>2.397540478082703</v>
+        <v>1.230624840372663</v>
       </c>
       <c r="G7">
-        <v>0.0007991637887946879</v>
+        <v>1.008126706493712</v>
       </c>
       <c r="H7">
-        <v>0.004891676594446448</v>
+        <v>0.02910200859279932</v>
       </c>
       <c r="I7">
-        <v>0.001675678934604186</v>
+        <v>0.03682809144220656</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7028852798386254</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7813781200563312</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.05417514901378517</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.05062529088794498</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.7702688659361456</v>
       </c>
       <c r="P7">
-        <v>1.087684391494015</v>
+        <v>0.1641535422351836</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.736434825295305</v>
+        <v>0.992487478997333</v>
       </c>
       <c r="C8">
-        <v>1.464118339770437</v>
+        <v>0.0976294286288919</v>
       </c>
       <c r="D8">
-        <v>0.07391235557678044</v>
+        <v>0.04312819178146299</v>
       </c>
       <c r="E8">
-        <v>1.29416445724037</v>
+        <v>0.03760306780185907</v>
       </c>
       <c r="F8">
-        <v>2.818429149018527</v>
+        <v>1.287221730346076</v>
       </c>
       <c r="G8">
-        <v>0.0007901460370847985</v>
+        <v>1.057920919022024</v>
       </c>
       <c r="H8">
-        <v>0.01005516924093632</v>
+        <v>0.02313248515790645</v>
       </c>
       <c r="I8">
-        <v>0.005372860819191416</v>
+        <v>0.03019834910546848</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.7128917985972549</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7987870265050176</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04654930388579004</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.05517276420723505</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9303871863593258</v>
       </c>
       <c r="P8">
-        <v>1.089487591704398</v>
+        <v>0.1934039717269371</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.415911772227162</v>
+        <v>1.325483497937142</v>
       </c>
       <c r="C9">
-        <v>1.994740460635967</v>
+        <v>0.1277826943856155</v>
       </c>
       <c r="D9">
-        <v>0.0883769866692532</v>
+        <v>0.05647342507820952</v>
       </c>
       <c r="E9">
-        <v>1.772201791939992</v>
+        <v>0.0459813376253706</v>
       </c>
       <c r="F9">
-        <v>3.683463379825696</v>
+        <v>1.419161170289456</v>
       </c>
       <c r="G9">
-        <v>0.0007732046513021398</v>
+        <v>1.159062748043283</v>
       </c>
       <c r="H9">
-        <v>0.02468761372549633</v>
+        <v>0.01391933451707983</v>
       </c>
       <c r="I9">
-        <v>0.01955913258151032</v>
+        <v>0.01949202011982543</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.7611990458571825</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.8457162718732505</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.03967238090657915</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.06430419849602487</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.245206182639635</v>
       </c>
       <c r="P9">
-        <v>1.103558314488197</v>
+        <v>0.2503553481531355</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.602905785113592</v>
+        <v>1.569356565711217</v>
       </c>
       <c r="C10">
-        <v>2.376245661793007</v>
+        <v>0.1512478830213411</v>
       </c>
       <c r="D10">
-        <v>0.09544131048739501</v>
+        <v>0.06723741349934897</v>
       </c>
       <c r="E10">
-        <v>2.03044398709352</v>
+        <v>0.05044445630736583</v>
       </c>
       <c r="F10">
-        <v>4.270257071634973</v>
+        <v>1.476834227823602</v>
       </c>
       <c r="G10">
-        <v>0.0007616360504728184</v>
+        <v>1.228258675498452</v>
       </c>
       <c r="H10">
-        <v>0.0378572013089622</v>
+        <v>0.009364231029813652</v>
       </c>
       <c r="I10">
-        <v>0.03511095460282565</v>
+        <v>0.0139961720434707</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.7461156493137651</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.8554030910932724</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.03945751483081583</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.06790783374382414</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.478633565549416</v>
       </c>
       <c r="P10">
-        <v>1.091024460534172</v>
+        <v>0.284589372074521</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.588332565320059</v>
+        <v>1.667037034743544</v>
       </c>
       <c r="C11">
-        <v>2.345199510257487</v>
+        <v>0.171783333651419</v>
       </c>
       <c r="D11">
-        <v>0.0728433864938367</v>
+        <v>0.06885318499887916</v>
       </c>
       <c r="E11">
-        <v>1.330751556135809</v>
+        <v>0.03832746807159992</v>
       </c>
       <c r="F11">
-        <v>3.982694589184518</v>
+        <v>1.280339657442838</v>
       </c>
       <c r="G11">
-        <v>0.0007601541995707229</v>
+        <v>1.104212807368896</v>
       </c>
       <c r="H11">
-        <v>0.05280914036437068</v>
+        <v>0.0277774537888611</v>
       </c>
       <c r="I11">
-        <v>0.037753114894854</v>
+        <v>0.01348201068558552</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.6007901268754097</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.7293013656827867</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.0403922029264443</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.05243779294923634</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.596622471041712</v>
       </c>
       <c r="P11">
-        <v>0.9030669903682167</v>
+        <v>0.229787427402627</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.345618155442139</v>
+        <v>1.698437660381387</v>
       </c>
       <c r="C12">
-        <v>2.23660020803942</v>
+        <v>0.1841616573517086</v>
       </c>
       <c r="D12">
-        <v>0.05644071730884548</v>
+        <v>0.06661450078598108</v>
       </c>
       <c r="E12">
-        <v>0.8211603905815821</v>
+        <v>0.02957656023233035</v>
       </c>
       <c r="F12">
-        <v>3.643944556141406</v>
+        <v>1.129854963267661</v>
       </c>
       <c r="G12">
-        <v>0.0007609435587364955</v>
+        <v>0.9884992984730729</v>
       </c>
       <c r="H12">
-        <v>0.08744102875231619</v>
+        <v>0.06675471044860615</v>
       </c>
       <c r="I12">
-        <v>0.03644100085519231</v>
+        <v>0.01334880838074515</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5202974434093477</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6410723588463085</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.04089309283869458</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.04670221652622519</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.646502576090001</v>
       </c>
       <c r="P12">
-        <v>0.7777018069335782</v>
+        <v>0.1808514478917331</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.897314969269019</v>
+        <v>1.678324301557922</v>
       </c>
       <c r="C13">
-        <v>2.067507920854155</v>
+        <v>0.192775383485781</v>
       </c>
       <c r="D13">
-        <v>0.04305388161407464</v>
+        <v>0.06119742674738404</v>
       </c>
       <c r="E13">
-        <v>0.4304368035855077</v>
+        <v>0.02291287050898472</v>
       </c>
       <c r="F13">
-        <v>3.232595640091887</v>
+        <v>1.001228948564069</v>
       </c>
       <c r="G13">
-        <v>0.0007635703527378856</v>
+        <v>0.8614408320916596</v>
       </c>
       <c r="H13">
-        <v>0.1385865610561012</v>
+        <v>0.1232477222719268</v>
       </c>
       <c r="I13">
-        <v>0.03234772729667501</v>
+        <v>0.01401590617275073</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4803806340504764</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.5720853909785575</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.04077870592103938</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.04753693426574834</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.648722845235483</v>
       </c>
       <c r="P13">
-        <v>0.6847524645093088</v>
+        <v>0.1348105068906094</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.49179278763927</v>
+        <v>1.64069311843059</v>
       </c>
       <c r="C14">
-        <v>1.92469935826449</v>
+        <v>0.1974721436667721</v>
       </c>
       <c r="D14">
-        <v>0.03545943499494442</v>
+        <v>0.05617014973178414</v>
       </c>
       <c r="E14">
-        <v>0.2304414329774218</v>
+        <v>0.0196308076694538</v>
       </c>
       <c r="F14">
-        <v>2.914477541059597</v>
+        <v>0.9197981292453434</v>
       </c>
       <c r="G14">
-        <v>0.0007662003112132409</v>
+        <v>0.7700608323923888</v>
       </c>
       <c r="H14">
-        <v>0.1846997451284835</v>
+        <v>0.1733094357486351</v>
       </c>
       <c r="I14">
-        <v>0.02857043298932282</v>
+        <v>0.01498525461559375</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4659070487766854</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.5315362207132459</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04043047512220799</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05192433704902477</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.628999463822566</v>
       </c>
       <c r="P14">
-        <v>0.636617747162866</v>
+        <v>0.1051154547045883</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.345712463304778</v>
+        <v>1.620266996201593</v>
       </c>
       <c r="C15">
-        <v>1.87803954795487</v>
+        <v>0.1980878833037849</v>
       </c>
       <c r="D15">
-        <v>0.03377085357345422</v>
+        <v>0.05445833891191398</v>
       </c>
       <c r="E15">
-        <v>0.1903441791731133</v>
+        <v>0.01898205621893601</v>
       </c>
       <c r="F15">
-        <v>2.817604012370936</v>
+        <v>0.9011348628385392</v>
       </c>
       <c r="G15">
-        <v>0.0007672860252298415</v>
+        <v>0.7446272456235477</v>
       </c>
       <c r="H15">
-        <v>0.1961007734092988</v>
+        <v>0.1861620872987118</v>
       </c>
       <c r="I15">
-        <v>0.02717402711722627</v>
+        <v>0.01558646952156018</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.4670080088615833</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.5231774622165446</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04023626526702095</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.05337914122789655</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.614341674493744</v>
       </c>
       <c r="P15">
-        <v>0.6281378259490218</v>
+        <v>0.09799209303801604</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.936119174746807</v>
+        <v>1.517103847183563</v>
       </c>
       <c r="C16">
-        <v>1.756462432841943</v>
+        <v>0.1885019767025398</v>
       </c>
       <c r="D16">
-        <v>0.03384028511147363</v>
+        <v>0.04941206247161745</v>
       </c>
       <c r="E16">
-        <v>0.1804204042892827</v>
+        <v>0.01858978074228723</v>
       </c>
       <c r="F16">
-        <v>2.657050463300919</v>
+        <v>0.9173217343669933</v>
       </c>
       <c r="G16">
-        <v>0.0007716125292273823</v>
+        <v>0.723872115855599</v>
       </c>
       <c r="H16">
-        <v>0.1794527841903033</v>
+        <v>0.175275198507336</v>
       </c>
       <c r="I16">
-        <v>0.02184367076104721</v>
+        <v>0.01785913297731412</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5130435565175731</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5400969066514314</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.03941707583436216</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.0514634204930573</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.515741545227826</v>
       </c>
       <c r="P16">
-        <v>0.651435611291852</v>
+        <v>0.09410214518881332</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.833874973497018</v>
+        <v>1.458410761164487</v>
       </c>
       <c r="C17">
-        <v>1.737849896047749</v>
+        <v>0.1782488505956508</v>
       </c>
       <c r="D17">
-        <v>0.03750419642386404</v>
+        <v>0.04846932903769385</v>
       </c>
       <c r="E17">
-        <v>0.2639330924608174</v>
+        <v>0.01969992859352843</v>
       </c>
       <c r="F17">
-        <v>2.69897714991464</v>
+        <v>0.9706927405142736</v>
       </c>
       <c r="G17">
-        <v>0.0007735824492763888</v>
+        <v>0.7565383470751499</v>
       </c>
       <c r="H17">
-        <v>0.1402455617029688</v>
+        <v>0.1385764582062166</v>
       </c>
       <c r="I17">
-        <v>0.01969550886613902</v>
+        <v>0.01915947627553116</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5550561811590597</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5735825422904952</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.03917787572528741</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.04712178086510121</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.45042497112064</v>
       </c>
       <c r="P17">
-        <v>0.6925813884899128</v>
+        <v>0.1061804928518981</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.994937761584595</v>
+        <v>1.431324294326146</v>
       </c>
       <c r="C18">
-        <v>1.804951456726997</v>
+        <v>0.1662126504075161</v>
       </c>
       <c r="D18">
-        <v>0.04650595151861836</v>
+        <v>0.05025333176172353</v>
       </c>
       <c r="E18">
-        <v>0.5012350193891635</v>
+        <v>0.02349598836617073</v>
       </c>
       <c r="F18">
-        <v>2.933583967417889</v>
+        <v>1.074429345257116</v>
       </c>
       <c r="G18">
-        <v>0.000773548116443686</v>
+        <v>0.8411405842862791</v>
       </c>
       <c r="H18">
-        <v>0.08838109454863741</v>
+        <v>0.08598099408111182</v>
       </c>
       <c r="I18">
-        <v>0.01962906721980584</v>
+        <v>0.01920188822876234</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6102982823427681</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.6335655708274679</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.03913756153441361</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.04379594946072451</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.405923610911145</v>
       </c>
       <c r="P18">
-        <v>0.7668408410710015</v>
+        <v>0.1359761030205107</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6.340717363587203</v>
+        <v>1.429408049617166</v>
       </c>
       <c r="C19">
-        <v>1.94458517355838</v>
+        <v>0.1560728038332826</v>
       </c>
       <c r="D19">
-        <v>0.06104873384579435</v>
+        <v>0.05441363306900371</v>
       </c>
       <c r="E19">
-        <v>0.9453177939100215</v>
+        <v>0.03107738384101211</v>
       </c>
       <c r="F19">
-        <v>3.302873377397788</v>
+        <v>1.213158988960203</v>
       </c>
       <c r="G19">
-        <v>0.0007717270255375275</v>
+        <v>0.9600518155167208</v>
       </c>
       <c r="H19">
-        <v>0.04693725659048198</v>
+        <v>0.0399569706377676</v>
       </c>
       <c r="I19">
-        <v>0.02186821644847559</v>
+        <v>0.01891250250591892</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6754322332758562</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.7123990593126663</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.03914066407849726</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.04685104529498663</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.383815625194586</v>
       </c>
       <c r="P19">
-        <v>0.8739235503081701</v>
+        <v>0.1833688227404124</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.246826672728787</v>
+        <v>1.501571297707699</v>
       </c>
       <c r="C20">
-        <v>2.281277834259754</v>
+        <v>0.1483165139344464</v>
       </c>
       <c r="D20">
-        <v>0.0917043484040363</v>
+        <v>0.06438029490100661</v>
       </c>
       <c r="E20">
-        <v>1.956744648804346</v>
+        <v>0.04891958559167442</v>
       </c>
       <c r="F20">
-        <v>4.078312994721784</v>
+        <v>1.455437345711147</v>
       </c>
       <c r="G20">
-        <v>0.0007648015064704452</v>
+        <v>1.184929071021557</v>
       </c>
       <c r="H20">
-        <v>0.03398296660081845</v>
+        <v>0.01045943354174739</v>
       </c>
       <c r="I20">
-        <v>0.03094044142827457</v>
+        <v>0.01642369535541999</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.7660340817387237</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.8473699555432432</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.03919328322222526</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.06642431210571687</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.421485268979922</v>
       </c>
       <c r="P20">
-        <v>1.077553176369335</v>
+        <v>0.2769661624354285</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.271384052501162</v>
+        <v>1.69539500305379</v>
       </c>
       <c r="C21">
-        <v>2.616745136655311</v>
+        <v>0.1607352246089135</v>
       </c>
       <c r="D21">
-        <v>0.1023510655173041</v>
+        <v>0.07798337399614041</v>
       </c>
       <c r="E21">
-        <v>2.323912087395797</v>
+        <v>0.05597525984307694</v>
       </c>
       <c r="F21">
-        <v>4.642254762457441</v>
+        <v>1.488387401991616</v>
       </c>
       <c r="G21">
-        <v>0.0007553058648042135</v>
+        <v>1.325011663669486</v>
       </c>
       <c r="H21">
-        <v>0.04725742275376454</v>
+        <v>0.007032766189361384</v>
       </c>
       <c r="I21">
-        <v>0.0460517376191687</v>
+        <v>0.01259313578917265</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6547792360238702</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.8471205840285378</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.04052878297815088</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.07231302437888942</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.593491591518813</v>
       </c>
       <c r="P21">
-        <v>1.106713656422215</v>
+        <v>0.317250430172507</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.934333451542443</v>
+        <v>1.823085100088917</v>
       </c>
       <c r="C22">
-        <v>2.825058429238027</v>
+        <v>0.1683390571406704</v>
       </c>
       <c r="D22">
-        <v>0.1084892713896934</v>
+        <v>0.08678716445011503</v>
       </c>
       <c r="E22">
-        <v>2.514524627111911</v>
+        <v>0.05980384448301734</v>
       </c>
       <c r="F22">
-        <v>4.999520173465328</v>
+        <v>1.500373881356836</v>
       </c>
       <c r="G22">
-        <v>0.0007493132598017731</v>
+        <v>1.420596479071008</v>
       </c>
       <c r="H22">
-        <v>0.05638144862008332</v>
+        <v>0.005321281689340096</v>
       </c>
       <c r="I22">
-        <v>0.05706598819542208</v>
+        <v>0.0100879301906156</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5816009432986533</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.8420510349721155</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.04225741429945806</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.07503275239842111</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.705260027780184</v>
       </c>
       <c r="P22">
-        <v>1.121950448346524</v>
+        <v>0.3385609327445991</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.595242952112244</v>
+        <v>1.755556604577407</v>
       </c>
       <c r="C23">
-        <v>2.7106406466051</v>
+        <v>0.1638101120044553</v>
       </c>
       <c r="D23">
-        <v>0.1058939781486643</v>
+        <v>0.08111177640699196</v>
       </c>
       <c r="E23">
-        <v>2.412708661291333</v>
+        <v>0.05771164659500627</v>
       </c>
       <c r="F23">
-        <v>4.821158926806987</v>
+        <v>1.506446297911438</v>
       </c>
       <c r="G23">
-        <v>0.0007524584084325714</v>
+        <v>1.367594893412374</v>
       </c>
       <c r="H23">
-        <v>0.05146333044048212</v>
+        <v>0.006175821973330387</v>
       </c>
       <c r="I23">
-        <v>0.05092019961416483</v>
+        <v>0.01093991252571236</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6362879415900977</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.8529988686177532</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.04125700356327755</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.07394009022767278</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.645025871196282</v>
       </c>
       <c r="P23">
-        <v>1.119745363144574</v>
+        <v>0.3263504327502034</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.302328049739117</v>
+        <v>1.501402421356431</v>
       </c>
       <c r="C24">
-        <v>2.290898539287753</v>
+        <v>0.1456920995812254</v>
       </c>
       <c r="D24">
-        <v>0.09503829538671482</v>
+        <v>0.06426982611591825</v>
       </c>
       <c r="E24">
-        <v>2.034688665809696</v>
+        <v>0.05037383827890096</v>
       </c>
       <c r="F24">
-        <v>4.138735064769037</v>
+        <v>1.481241487352165</v>
       </c>
       <c r="G24">
-        <v>0.0007645285058988202</v>
+        <v>1.207989501346646</v>
       </c>
       <c r="H24">
-        <v>0.03472078643161858</v>
+        <v>0.01018197154966689</v>
       </c>
       <c r="I24">
-        <v>0.03097258645892609</v>
+        <v>0.0156854503272621</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.7792149219332458</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.864122596197312</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.03918601460529203</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.0686939905265298</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.415627185880851</v>
       </c>
       <c r="P24">
-        <v>1.103740619409947</v>
+        <v>0.282136066998774</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.935627322275309</v>
+        <v>1.233426309047474</v>
       </c>
       <c r="C25">
-        <v>1.853165442785212</v>
+        <v>0.1212154803796324</v>
       </c>
       <c r="D25">
-        <v>0.08346568978059565</v>
+        <v>0.05298268872162026</v>
       </c>
       <c r="E25">
-        <v>1.640566109694802</v>
+        <v>0.04358100733838022</v>
       </c>
       <c r="F25">
-        <v>3.427107054559997</v>
+        <v>1.378350629140286</v>
       </c>
       <c r="G25">
-        <v>0.0007777875869371744</v>
+        <v>1.118996561154631</v>
       </c>
       <c r="H25">
-        <v>0.0201211202158289</v>
+        <v>0.01613795429084741</v>
       </c>
       <c r="I25">
-        <v>0.01505530797214849</v>
+        <v>0.02268991048129188</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.7535186054854393</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.8289917790224379</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.04067702969877529</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.06157322758335226</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.162039049285028</v>
       </c>
       <c r="P25">
-        <v>1.090272130385642</v>
+        <v>0.235898794978084</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
